--- a/旅游网项目进度表-卞虹霖组.xlsx
+++ b/旅游网项目进度表-卞虹霖组.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\hgkj_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\hgkj_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EA4168-675F-402E-B63D-369339B705C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81E230E-0248-474C-A250-DF0362B86A88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="马涛" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$12:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$13:$G$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">黄之贤!$G$12:$G$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">金懿!$G$12:$G$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">马涛!$G$12:$G$21</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="34">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>查看订单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +309,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +350,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -624,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -708,10 +718,10 @@
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="14">
         <v>43640</v>
       </c>
       <c r="D4" s="2"/>
@@ -728,52 +738,58 @@
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6">
-        <v>43640</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="6">
+        <v>43641</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43641</v>
+      </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6">
+        <v>43640</v>
+      </c>
+      <c r="D6" s="6">
         <v>43641</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="6">
+        <v>43641</v>
+      </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6">
         <v>43641</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="6">
+        <v>43641</v>
+      </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -783,10 +799,10 @@
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6">
-        <v>43642</v>
+        <v>43641</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -801,7 +817,7 @@
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6">
         <v>43642</v>
@@ -819,10 +835,10 @@
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6">
-        <v>43643</v>
+        <v>43642</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -837,7 +853,7 @@
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6">
         <v>43643</v>
@@ -854,11 +870,11 @@
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="9" t="s">
-        <v>24</v>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="6">
-        <v>43644</v>
+        <v>43643</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -873,7 +889,7 @@
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6">
         <v>43644</v>
@@ -889,12 +905,12 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6">
-        <v>43645</v>
+        <v>43644</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -907,11 +923,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
+      <c r="A15" s="12"/>
+      <c r="B15" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="6">
         <v>43645</v>
@@ -927,9 +941,11 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6">
         <v>43645</v>
@@ -947,10 +963,10 @@
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6">
-        <v>43646</v>
+        <v>43645</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -965,7 +981,7 @@
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6">
         <v>43646</v>
@@ -983,10 +999,10 @@
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="6">
-        <v>43647</v>
+        <v>43646</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -999,12 +1015,12 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6">
-        <v>43648</v>
+        <v>43647</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1017,11 +1033,13 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="6">
+        <v>43648</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="7">
@@ -1032,15 +1050,21 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="4"/>
+    <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1953,13 +1977,13 @@
       <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -1993,7 +2017,14 @@
       <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
       <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
@@ -2004,15 +2035,20 @@
     <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
     </row>
+    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A20"/>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G21" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G22" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2025,7 +2061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571FFF87-B40E-4098-8E1E-142F0841D8C7}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
